--- a/experiments/dbscan-ajk/instructor-xl/0.1/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.1/prediction.xlsx
@@ -458,87 +458,87 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A passenger aircraft is nearby. Fly with caution</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,41 +548,41 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -598,27 +598,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,57 +648,57 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,157 +708,157 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -878,2747 +878,2747 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft in Authorization Zone. Unable to take off before unlocking</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>65</v>
+        <v>98</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>74</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>75</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>108</v>
+        <v>134</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>110</v>
+        <v>137</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>123</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>131</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>141</v>
+        <v>57</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>141</v>
+        <v>57</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>142</v>
+        <v>57</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>144</v>
+        <v>65</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>144</v>
+        <v>166</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>147</v>
+        <v>171</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>149</v>
+        <v>102</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>151</v>
+        <v>173</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>151</v>
+        <v>174</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -3628,2531 +3628,2531 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>152</v>
+        <v>180</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>153</v>
+        <v>192</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>154</v>
+        <v>191</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>155</v>
+        <v>193</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>155</v>
+        <v>194</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>157</v>
+        <v>195</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>158</v>
+        <v>184</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>160</v>
+        <v>187</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>169</v>
+        <v>196</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>169</v>
+        <v>197</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>171</v>
+        <v>199</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>171</v>
+        <v>198</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>177</v>
+        <v>206</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>178</v>
+        <v>207</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>179</v>
+        <v>207</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>180</v>
+        <v>208</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>181</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>184</v>
+        <v>205</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>186</v>
+        <v>211</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>186</v>
+        <v>212</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>191</v>
+        <v>218</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>191</v>
+        <v>219</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>193</v>
+        <v>215</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>195</v>
+        <v>57</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>195</v>
+        <v>57</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>198</v>
+        <v>139</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>199</v>
+        <v>224</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>199</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>199</v>
+        <v>134</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>199</v>
+        <v>226</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>199</v>
+        <v>227</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>200</v>
+        <v>229</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>200</v>
+        <v>231</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>200</v>
+        <v>239</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>205</v>
+        <v>236</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>206</v>
+        <v>238</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>208</v>
+        <v>235</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>210</v>
+        <v>235</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>211</v>
+        <v>241</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>214</v>
+        <v>242</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>215</v>
+        <v>244</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>216</v>
+        <v>248</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>220</v>
+        <v>249</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>224</v>
+        <v>253</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>225</v>
+        <v>254</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>225</v>
+        <v>170</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>227</v>
+        <v>170</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>228</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>228</v>
+        <v>256</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>228</v>
+        <v>169</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>228</v>
+        <v>257</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>230</v>
+        <v>259</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>232</v>
+        <v>273</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>234</v>
+        <v>273</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>235</v>
+        <v>276</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>235</v>
+        <v>200</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>237</v>
+        <v>278</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>238</v>
+        <v>279</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>241</v>
+        <v>14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>246</v>
+        <v>14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>247</v>
+        <v>26</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>251</v>
+        <v>200</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>253</v>
+        <v>200</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>256</v>
+        <v>211</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>258</v>
+        <v>174</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>260</v>
+        <v>281</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>267</v>
+        <v>288</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>268</v>
+        <v>26</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>269</v>
+        <v>26</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>270</v>
+        <v>26</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>271</v>
+        <v>26</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>272</v>
+        <v>26</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>273</v>
+        <v>26</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>273</v>
+        <v>26</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>274</v>
+        <v>26</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>275</v>
+        <v>199</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>276</v>
+        <v>199</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>280</v>
+        <v>119</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>281</v>
+        <v>120</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>293</v>
+        <v>27</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>301</v>
+        <v>173</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>304</v>
+        <v>152</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>310</v>
+        <v>84</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>311</v>
+        <v>131</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>312</v>
+        <v>132</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>313</v>
+        <v>14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>314</v>
+        <v>228</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>319</v>
+        <v>65</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>320</v>
+        <v>195</v>
       </c>
     </row>
     <row r="573">
@@ -6248,21 +6248,21 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Your aircraft is at the boundary of an Authorization Zone. Please fly away with caution</t>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="584">
